--- a/Baumappe/Projekt_Lötstation_Stückliste_v2.xlsx
+++ b/Baumappe/Projekt_Lötstation_Stückliste_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HAM\NextCloud\Projekte_OE9SAU\SMD-Lötstation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Eigene Dateien\HAM\DIY\Lötstation\OE1CGS_OE9SAU\SMD-Loetstation\Baumappe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05450454-E4D5-45B5-A5B6-0F14DEA0A855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110B62AD-FEC6-4172-AAC3-7B21C13068AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15840" xr2:uid="{62937ADC-E76A-4C9F-BE0E-490A1F4BDD68}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{62937ADC-E76A-4C9F-BE0E-490A1F4BDD68}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD-Loetstation_v2" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'SMD-Loetstation_v2'!$A:$D</definedName>
-    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">'SMD-Loetstation_v2'!$A$1:$D$35</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">'SMD-Loetstation_v2'!$A$1:$D$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="86">
   <si>
     <t>Bezeichner</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Bezeichnung</t>
   </si>
   <si>
-    <t>R12,R10,R8,R9,R14,R20,R11,R13</t>
-  </si>
-  <si>
     <t>R_0805_2012Metric_Pad1.20x1.40mm_HandSolder</t>
   </si>
   <si>
@@ -108,12 +105,6 @@
     <t>I2C</t>
   </si>
   <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
     <t>R21</t>
   </si>
   <si>
@@ -313,6 +304,9 @@
   </si>
   <si>
     <t>CPT-9019S-SMT</t>
+  </si>
+  <si>
+    <t>R4,R12,R10,R8,R9,R14,R20,R11,R13</t>
   </si>
 </sst>
 </file>
@@ -406,8 +400,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{605161F4-8FAB-4A5E-9F66-D1E020EB73B2}" name="SMD_Loetstation_v2" displayName="SMD_Loetstation_v2" ref="A1:D35" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D35" xr:uid="{605161F4-8FAB-4A5E-9F66-D1E020EB73B2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{605161F4-8FAB-4A5E-9F66-D1E020EB73B2}" name="SMD_Loetstation_v2" displayName="SMD_Loetstation_v2" ref="A1:D34" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D34" xr:uid="{605161F4-8FAB-4A5E-9F66-D1E020EB73B2}"/>
   <tableColumns count="4">
     <tableColumn id="2" xr3:uid="{F274EE5E-337B-4856-9924-6C50D799704D}" uniqueName="2" name="Bezeichner" queryTableFieldId="2" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{B54B88C7-13E1-41C5-87C2-101CB4138D0E}" uniqueName="3" name="Footprint" queryTableFieldId="3" dataDxfId="2"/>
@@ -735,9 +729,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7031E9F-85B3-4D70-9E75-2DD94E55219D}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -763,122 +759,122 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -892,21 +888,21 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
         <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -920,21 +916,21 @@
         <v>30</v>
       </c>
       <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
         <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -965,7 +961,7 @@
         <v>39</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>40</v>
@@ -979,7 +975,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>43</v>
@@ -1004,94 +1000,94 @@
         <v>47</v>
       </c>
       <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="1">
-        <v>3</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
         <v>60</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>61</v>
@@ -1102,35 +1098,35 @@
         <v>62</v>
       </c>
       <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
         <v>65</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -1141,10 +1137,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
         <v>69</v>
-      </c>
-      <c r="B29" t="s">
-        <v>31</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -1186,21 +1182,21 @@
         <v>77</v>
       </c>
       <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" t="s">
         <v>80</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -1221,20 +1217,6 @@
       </c>
       <c r="D34" s="2" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
